--- a/results.xlsx
+++ b/results.xlsx
@@ -350,7 +350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -363,6 +363,8 @@
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="22" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="100" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -391,6 +393,16 @@
           <t>Годен до</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Осталось дней</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Примечание</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -414,6 +426,14 @@
       <c r="E2" s="1" t="n">
         <v>44021.99998842592</v>
       </c>
+      <c r="F2" t="n">
+        <v>121</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;X509Name object '/C=GB/ST=Greater Manchester/L=Salford/O=Sectigo Limited/CN=Sectigo ECC Extended Validation Secure Server CA'&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -436,6 +456,14 @@
       </c>
       <c r="E3" s="1" t="n">
         <v>44078.46706018518</v>
+      </c>
+      <c r="F3" t="n">
+        <v>178</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;X509Name object '/C=RU/O=Yandex LLC/OU=Yandex Certification Authority/CN=Yandex CA'&gt;</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -449,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,6 +490,8 @@
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="22" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="100" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -490,6 +520,16 @@
           <t>Годен до</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Осталось дней</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Примечание</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -513,6 +553,14 @@
       <c r="E2" s="1" t="n">
         <v>44021.99998842592</v>
       </c>
+      <c r="F2" t="n">
+        <v>121</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;X509Name object '/C=GB/ST=Greater Manchester/L=Salford/O=Sectigo Limited/CN=Sectigo ECC Extended Validation Secure Server CA'&gt;</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -523,6 +571,15 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>Не доступен</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[WinError 10060] Попытка установить соединение была безуспешной, т.к. от другого компьютера за требуемое время не получен нужный отклик, или было разорвано уже установленное соединение из-за неверного отклика уже подключенного компьютера</t>
         </is>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,41 +1,110 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YandexDisk\Основа\Практика\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="report.xml" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="report — копия.xml" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="report.xml" sheetId="1" r:id="rId1"/>
+    <sheet name="report — копия.xml" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+  <si>
+    <t>Адрес</t>
+  </si>
+  <si>
+    <t>Доступность</t>
+  </si>
+  <si>
+    <t>Сертификат</t>
+  </si>
+  <si>
+    <t>Действует от</t>
+  </si>
+  <si>
+    <t>Годен до</t>
+  </si>
+  <si>
+    <t>Осталось дней</t>
+  </si>
+  <si>
+    <t>Подписан</t>
+  </si>
+  <si>
+    <t>Примечание</t>
+  </si>
+  <si>
+    <t>87.240.190.72</t>
+  </si>
+  <si>
+    <t>Доступен</t>
+  </si>
+  <si>
+    <t>Есть</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>&lt;X509Name object '/C=GB/ST=Greater Manchester/L=Salford/O=Sectigo Limited/CN=Sectigo ECC Extended Validation Secure Server CA'&gt;</t>
+  </si>
+  <si>
+    <t>5.255.255.80</t>
+  </si>
+  <si>
+    <t>&lt;X509Name object '/C=RU/O=Yandex LLC/OU=Yandex Certification Authority/CN=Yandex CA'&gt;</t>
+  </si>
+  <si>
+    <t>10.1.2.249</t>
+  </si>
+  <si>
+    <t>Не доступен</t>
+  </si>
+  <si>
+    <t>[WinError 10060] Попытка установить соединение была безуспешной, т.к. от другого компьютера за требуемое время не получен нужный отклик, или было разорвано уже установленное соединение из-за неверного отклика уже подключенного компьютера</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA500"/>
+        <bgColor rgb="FFFFA500"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -50,14 +119,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -345,125 +424,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="22" customWidth="1" min="6" max="6"/>
-    <col width="100" customWidth="1" min="7" max="7"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="3" width="12" customWidth="1"/>
+    <col min="4" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="100" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Адрес</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Доступность</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Сертификат</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Действует от</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Годен до</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Осталось дней</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Примечание</t>
-        </is>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>87.240.190.72</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Доступен</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Есть</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
         <v>43657</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>44021.99998842592</v>
-      </c>
-      <c r="F2" t="n">
-        <v>121</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>&lt;X509Name object '/C=GB/ST=Greater Manchester/L=Salford/O=Sectigo Limited/CN=Sectigo ECC Extended Validation Secure Server CA'&gt;</t>
-        </is>
+      <c r="E2" s="1">
+        <v>44021.999988425923</v>
+      </c>
+      <c r="F2" s="2">
+        <v>119</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>5.255.255.80</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Доступен</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Есть</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>43713.46706018518</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>44078.46706018518</v>
-      </c>
-      <c r="F3" t="n">
-        <v>178</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>&lt;X509Name object '/C=RU/O=Yandex LLC/OU=Yandex Certification Authority/CN=Yandex CA'&gt;</t>
-        </is>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43713.467060185183</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44078.467060185183</v>
+      </c>
+      <c r="F3" s="2">
+        <v>175</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -472,115 +525,81 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="22" customWidth="1" min="6" max="6"/>
-    <col width="100" customWidth="1" min="7" max="7"/>
+    <col min="1" max="3" width="15" customWidth="1"/>
+    <col min="4" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="100" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Адрес</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Доступность</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Сертификат</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Действует от</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Годен до</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Осталось дней</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Примечание</t>
-        </is>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>87.240.190.72</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Доступен</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Есть</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
         <v>43657</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>44021.99998842592</v>
-      </c>
-      <c r="F2" t="n">
-        <v>121</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>&lt;X509Name object '/C=GB/ST=Greater Manchester/L=Salford/O=Sectigo Limited/CN=Sectigo ECC Extended Validation Secure Server CA'&gt;</t>
-        </is>
+      <c r="E2" s="1">
+        <v>44021.999988425923</v>
+      </c>
+      <c r="F2" s="2">
+        <v>119</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>10.1.2.249</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Не доступен</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[WinError 10060] Попытка установить соединение была безуспешной, т.к. от другого компьютера за требуемое время не получен нужный отклик, или было разорвано уже установленное соединение из-за неверного отклика уже подключенного компьютера</t>
-        </is>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -589,18 +608,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,101 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YandexDisk\Основа\Практика\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="report.xml" sheetId="1" r:id="rId1"/>
-    <sheet name="report — копия.xml" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="report.xml" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
-  <si>
-    <t>Адрес</t>
-  </si>
-  <si>
-    <t>Доступность</t>
-  </si>
-  <si>
-    <t>Сертификат</t>
-  </si>
-  <si>
-    <t>Действует от</t>
-  </si>
-  <si>
-    <t>Годен до</t>
-  </si>
-  <si>
-    <t>Осталось дней</t>
-  </si>
-  <si>
-    <t>Подписан</t>
-  </si>
-  <si>
-    <t>Примечание</t>
-  </si>
-  <si>
-    <t>87.240.190.72</t>
-  </si>
-  <si>
-    <t>Доступен</t>
-  </si>
-  <si>
-    <t>Есть</t>
-  </si>
-  <si>
-    <t>Нет</t>
-  </si>
-  <si>
-    <t>&lt;X509Name object '/C=GB/ST=Greater Manchester/L=Salford/O=Sectigo Limited/CN=Sectigo ECC Extended Validation Secure Server CA'&gt;</t>
-  </si>
-  <si>
-    <t>5.255.255.80</t>
-  </si>
-  <si>
-    <t>&lt;X509Name object '/C=RU/O=Yandex LLC/OU=Yandex Certification Authority/CN=Yandex CA'&gt;</t>
-  </si>
-  <si>
-    <t>10.1.2.249</t>
-  </si>
-  <si>
-    <t>Не доступен</t>
-  </si>
-  <si>
-    <t>[WinError 10060] Попытка установить соединение была безуспешной, т.к. от другого компьютера за требуемое время не получен нужный отклик, или было разорвано уже установленное соединение из-за неверного отклика уже подключенного компьютера</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -120,23 +56,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -424,99 +351,195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="3" width="12" customWidth="1"/>
-    <col min="4" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="100" customWidth="1"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="150" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Адрес</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Доступность</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Заголовок</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Сертификат</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Действует от</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Годен до</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Осталось дней</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Подписан</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Примечание</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>87.240.190.72:443</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Доступен</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>404 Not Found</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="n">
         <v>43657</v>
       </c>
-      <c r="E2" s="1">
-        <v>44021.999988425923</v>
-      </c>
-      <c r="F2" s="2">
-        <v>119</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
+      <c r="F2" s="1" t="n">
+        <v>44021.99998842592</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>&lt;X509Name object '/C=GB/ST=Greater Manchester/L=Salford/O=Sectigo Limited/CN=Sectigo ECC Extended Validation Secure Server CA'&gt;</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1">
-        <v>43713.467060185183</v>
-      </c>
-      <c r="E3" s="1">
-        <v>44078.467060185183</v>
-      </c>
-      <c r="F3" s="2">
-        <v>175</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>5.255.255.80:443</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Доступен</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>43713.46706018518</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>44078.46706018518</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>&lt;X509Name object '/C=RU/O=Yandex LLC/OU=Yandex Certification Authority/CN=Yandex CA'&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>5.255.255.80:80</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Доступен</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10.1.2.249:44</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Не доступен</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>HTTPConnectionPool(host='10.1.2.249', port=80): Max retries exceeded with url: / (Caused by ConnectTimeoutError(&lt;urllib3.connection.HTTPConnection object at 0x000001EE447F8EE0&gt;, 'Connection to 10.1.2.249 timed out. (connect timeout=10)'))</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -525,95 +548,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="15" customWidth="1"/>
-    <col min="4" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="100" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>43657</v>
-      </c>
-      <c r="E2" s="1">
-        <v>44021.999988425923</v>
-      </c>
-      <c r="F2" s="2">
-        <v>119</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -474,7 +474,11 @@
           <t>Доступен</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>status_code: 406</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Есть</t>
@@ -511,7 +515,11 @@
           <t>Доступен</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>status_code: 406</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -538,7 +546,7 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>HTTPConnectionPool(host='10.1.2.249', port=80): Max retries exceeded with url: / (Caused by ConnectTimeoutError(&lt;urllib3.connection.HTTPConnection object at 0x000001EE447F8EE0&gt;, 'Connection to 10.1.2.249 timed out. (connect timeout=10)'))</t>
+          <t>HTTPConnectionPool(host='10.1.2.249', port=80): Max retries exceeded with url: / (Caused by ConnectTimeoutError(&lt;urllib3.connection.HTTPConnection object at 0x000001A293AF8EE0&gt;, 'Connection to 10.1.2.249 timed out. (connect timeout=10)'))</t>
         </is>
       </c>
     </row>
